--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_7_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_7_sine_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.36000000000021</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.960594732333751e-16</v>
+        <v>2.627746803846524e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>35.48823971355579</v>
+        <v>36.43726553709205</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[28.76939022243858, 42.20708920467299]</t>
+          <t>[29.223199927026677, 43.65133114715743]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.540921321580579</v>
+        <v>1.616395018964117</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.3270791789938867, 1.7547634641672714]</t>
+          <t>[1.402552876377424, 1.8302371615508104]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>57.3411956802097</v>
+        <v>56.93608141608371</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[52.949844279961034, 61.73254708045837]</t>
+          <t>[52.32183542971037, 61.55032740245705]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.63107107107123</v>
+        <v>17.3950350350352</v>
       </c>
       <c r="X2" t="n">
-        <v>16.83603603603619</v>
+        <v>16.59795795795812</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.42610610610627</v>
+        <v>18.19211211211229</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.68000000000011</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,44 +661,46 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.960594732333751e-16</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>2.627746803846524e-16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9430257974493029</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>36.79477424721371</v>
+        <v>41.98909576352214</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[27.165519933357764, 46.424028561069655]</t>
+          <t>[34.418387646168085, 49.5598038808762]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4.152234112098085e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.152234112098085e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.6415264277600778</v>
+        <v>-0.1132105460753081</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.8931054190385401, -0.38994743648161556]</t>
+          <t>[-0.32705268866200043, 0.1006315965113842]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>8.191745402008621e-07</v>
+        <v>0.2985659609976949</v>
       </c>
       <c r="R3" t="n">
-        <v>8.191745402008621e-07</v>
+        <v>0.2985659609976949</v>
       </c>
       <c r="S3" t="n">
-        <v>55.78736476763477</v>
+        <v>58.83102969725084</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.88420662632174, 60.6905229089478]</t>
+          <t>[53.986040864407926, 63.67601853009376]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.315675675675685</v>
+        <v>0.4099099099099135</v>
       </c>
       <c r="X3" t="n">
-        <v>1.407567567567571</v>
+        <v>-0.3643643643643636</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.223783783783799</v>
+        <v>1.184184184184191</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_7_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_7_sine_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.42000000000022</v>
+        <v>23.18000000000018</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.627746803846524e-16</v>
+        <v>2.413528314402514e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>36.43726553709205</v>
+        <v>39.77423376918031</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[29.223199927026677, 43.65133114715743]</t>
+          <t>[32.036462308172375, 47.51200523018825]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.616395018964117</v>
+        <v>1.301921279866041</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.402552876377424, 1.8302371615508104]</t>
+          <t>[1.1006580868432705, 1.5031844728888109]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>56.93608141608371</v>
+        <v>57.38500683124646</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[52.32183542971037, 61.55032740245705]</t>
+          <t>[52.91011933482034, 61.85989432767258]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.3950350350352</v>
+        <v>18.37693693693708</v>
       </c>
       <c r="X2" t="n">
-        <v>16.59795795795812</v>
+        <v>17.63443443443457</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.19211211211229</v>
+        <v>19.11943943943959</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.75000000000012</v>
+        <v>22.84000000000013</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,18 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.627746803846524e-16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9430257974493029</v>
-      </c>
+        <v>2.413528314402514e-16</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>41.98909576352214</v>
+        <v>38.69519854434624</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[34.418387646168085, 49.5598038808762]</t>
+          <t>[31.25521544885124, 46.13518163984124]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -682,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.1132105460753081</v>
+        <v>-0.0503157982556921</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.32705268866200043, 0.1006315965113842]</t>
+          <t>[-0.2641579408423853, 0.1635263443310011]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.2985659609976949</v>
+        <v>0.6438882407730047</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2985659609976949</v>
+        <v>0.6438882407730047</v>
       </c>
       <c r="S3" t="n">
-        <v>58.83102969725084</v>
+        <v>64.11529507199602</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[53.986040864407926, 63.67601853009376]</t>
+          <t>[59.23564218092699, 68.99494796306504]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.4099099099099135</v>
+        <v>0.182902902902903</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.3643643643643636</v>
+        <v>-0.5944344344344409</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.184184184184191</v>
+        <v>0.9602402402402469</v>
       </c>
     </row>
   </sheetData>
